--- a/data-source.xlsx
+++ b/data-source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CI-Backend\KTCNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uyenadmin/HUST/2021-2/KinhTeCNPM/KTCNPM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A190EC1F-CFFB-D24E-A027-A93D0BEF4077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="867" activeTab="4"/>
+    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" tabRatio="867" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Xac dinh gia phan mem" sheetId="6" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="He so PTMT - KN - NOI SUY" sheetId="4" r:id="rId5"/>
     <sheet name="Luong binh quan" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>TT</t>
   </si>
@@ -388,18 +389,33 @@
   <si>
     <t>ES = Tổng S nội suy</t>
   </si>
+  <si>
+    <t>Hệ số BMT</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +468,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -579,7 +601,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -610,10 +632,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,11 +644,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +799,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -812,6 +851,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,22 +1043,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>110</v>
       </c>
@@ -1011,7 +1067,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1095,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1053,7 +1109,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1067,7 +1123,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1083,7 +1139,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1099,7 +1155,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1115,7 +1171,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1131,7 +1187,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -1146,7 +1202,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1161,7 +1217,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1176,7 +1232,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -1203,24 +1259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1286,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1274,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1295,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1316,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1340,21 +1396,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -1362,7 +1418,7 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1378,8 +1434,11 @@
       <c r="E3" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1393,7 +1452,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1407,8 +1466,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -1422,8 +1484,11 @@
       <c r="E6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -1437,8 +1502,11 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1452,7 +1520,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1464,10 +1532,13 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1479,10 +1550,13 @@
         <v>144</v>
       </c>
       <c r="E10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1494,10 +1568,13 @@
         <v>54</v>
       </c>
       <c r="E11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1511,7 +1588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1523,10 +1600,13 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1538,10 +1618,13 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1553,10 +1636,13 @@
         <v>90</v>
       </c>
       <c r="E15">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -1573,29 +1659,30 @@
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>60</v>
       </c>
@@ -1605,7 +1692,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1726,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1657,7 +1744,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1675,7 +1762,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1693,7 +1780,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1711,7 +1798,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1729,7 +1816,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1747,7 +1834,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -1765,7 +1852,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1783,7 +1870,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1801,7 +1888,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1819,7 +1906,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1837,7 +1924,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -1855,7 +1942,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -1873,7 +1960,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>57</v>
       </c>
@@ -1887,7 +1974,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -1907,24 +1994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>81</v>
       </c>
@@ -1934,7 +2021,7 @@
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1971,7 +2058,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>65</v>
@@ -1981,7 +2068,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2001,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2021,7 +2108,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2041,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -2061,7 +2148,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2081,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>71</v>
@@ -2093,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -2113,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -2133,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -2153,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2255,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2186,7 +2273,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>78</v>
       </c>
@@ -2200,7 +2287,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
@@ -2208,7 +2295,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="30"/>
@@ -2228,21 +2315,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>88</v>
       </c>
@@ -2250,13 +2337,13 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2284,7 +2371,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2298,7 +2385,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2312,7 +2399,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>85</v>
       </c>
@@ -2322,7 +2409,7 @@
         <v>105000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>86</v>
       </c>
@@ -2332,7 +2419,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>87</v>
       </c>
@@ -2355,23 +2442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="497b9c4e-81e6-4cf2-8875-bfa63f23b995" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF4299D32896B14EBBFC422E4EAA0C73" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="555d951bbedba6aa95147815505ec613">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="497b9c4e-81e6-4cf2-8875-bfa63f23b995" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="521df68f775044b4d562c67ef790862d" ns2:_="">
     <xsd:import namespace="497b9c4e-81e6-4cf2-8875-bfa63f23b995"/>
@@ -2497,10 +2567,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="497b9c4e-81e6-4cf2-8875-bfa63f23b995" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6516909A-D420-4A97-848A-749CC9334BD0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135D7751-4A51-44F1-88B4-EBD6B5CD2B31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="497b9c4e-81e6-4cf2-8875-bfa63f23b995"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2516,19 +2613,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{135D7751-4A51-44F1-88B4-EBD6B5CD2B31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6516909A-D420-4A97-848A-749CC9334BD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="497b9c4e-81e6-4cf2-8875-bfa63f23b995"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>